--- a/content/programme/program.xlsx
+++ b/content/programme/program.xlsx
@@ -1,22 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\br\2024-semantics-org.github.io\content\programme\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80447A29-8E58-4021-A148-4D0FBE36EAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="PreConference" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="DRAFT1 - Day 1" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="DRAFT1 - Day 2" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Events" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Talks" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="notes" sheetId="6" r:id="rId9"/>
+    <sheet name="PreConference" sheetId="1" r:id="rId1"/>
+    <sheet name="DRAFT1 - Day 1" sheetId="2" r:id="rId2"/>
+    <sheet name="DRAFT1 - Day 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Events" sheetId="4" r:id="rId4"/>
+    <sheet name="Talks" sheetId="5" r:id="rId5"/>
+    <sheet name="notes" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="244">
   <si>
     <t>Plenary Session</t>
   </si>
@@ -68,18 +90,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve">(W) </t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t>NXDG: NeXt-Generation Data Governance</t>
     </r>
@@ -87,18 +109,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t>(W)</t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve"> Production/Industry driven workshop</t>
     </r>
@@ -106,18 +128,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t>(T)</t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve"> Semantics in Data Spaces</t>
     </r>
@@ -125,18 +147,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t>(T)</t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve"> Modeling product ontologies for industrial KG applications</t>
     </r>
@@ -144,18 +166,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
       </rPr>
       <t>(W)</t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve"> 3rd NLP4KGC</t>
     </r>
@@ -175,18 +197,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve">(W) </t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t>NXDG: NeXt-Generation Data Governance</t>
     </r>
@@ -194,18 +216,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t>(W)</t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve"> Production/Industry driven workshop</t>
     </r>
@@ -213,18 +235,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t>(T)</t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve"> Semantics in Data Spaces</t>
     </r>
@@ -232,18 +254,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t>(T)</t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve"> Modeling product ontologies for industrial KG applications</t>
     </r>
@@ -251,18 +273,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
       </rPr>
       <t>(W)</t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial, sans-serif"/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve"> 3rd NLP4KGC</t>
     </r>
@@ -279,18 +301,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve">(W) </t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t>NXDG: NeXt-Generation Data Governance</t>
     </r>
@@ -298,18 +320,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t>(W)</t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve"> Production/Industry driven workshop</t>
     </r>
@@ -317,19 +339,19 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve">(W)
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t>Intl. Workshop on Semantic Materials Science</t>
     </r>
@@ -337,18 +359,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t>(T)</t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve"> The Ultimate Guide to Semantic Reasoning</t>
     </r>
@@ -356,19 +378,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve">(W) </t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t>Large Language Models and Knowledge Graphs unified</t>
     </r>
@@ -388,18 +409,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve">(W) </t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t>NXDG: NeXt-Generation Data Governance</t>
     </r>
@@ -407,18 +428,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t>(W)</t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve"> Production/Industry driven workshop</t>
     </r>
@@ -426,19 +447,19 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve">(W)
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t>Intl. Workshop on Semantic Materials Science</t>
     </r>
@@ -446,18 +467,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t>(T)</t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve"> The Ultimate Guide to Semantic Reasoning</t>
     </r>
@@ -465,19 +486,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve">(W) </t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t>Large Language Models and Knowledge Graphs unified</t>
     </r>
@@ -516,16 +536,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Presentations: </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 Research and Innovation (R&amp;I) 
@@ -554,16 +576,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Presentations: </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 Research and Innovation (R&amp;I) 
@@ -634,16 +658,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Presentations: </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 Research and Innovation (R&amp;I) 
@@ -663,16 +689,18 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Presentations: </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
 Research and Innovation (R&amp;I) 
@@ -1139,63 +1167,102 @@
   <si>
     <t>* Afternoon coffee break should be served (preferrably) close to the P&amp;D session</t>
   </si>
+  <si>
+    <t>Group: session | dbpedia
+Slot title: DBpedia
+Title: Opening Session
+Chair: Sebastian Hellmann
+Link: DBpedia_Session_1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="14">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial, sans-serif"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial, sans-serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1203,7 +1270,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1249,7 +1316,13 @@
     </fill>
   </fills>
   <borders count="16">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
@@ -1263,6 +1336,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1277,6 +1351,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1291,6 +1366,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1305,6 +1381,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1319,6 +1396,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1333,6 +1411,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1347,6 +1426,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1361,6 +1441,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1375,6 +1456,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1389,6 +1471,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1403,6 +1486,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1417,6 +1501,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1431,6 +1516,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1445,6 +1531,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1459,293 +1546,271 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="59">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF5B3F86"/>
           <bgColor rgb="FF5B3F86"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
+          <fgColor rgb="FF5B3F86"/>
+          <bgColor rgb="FF5B3F86"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle count="3" pivot="0" name="Events-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Events-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Talks-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Talks-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F15" displayName="Events" name="Events" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Events" displayName="Events" ref="A1:F15">
   <tableColumns count="6">
-    <tableColumn name="Event Name" id="1"/>
-    <tableColumn name="Day" id="2"/>
-    <tableColumn name="Length " id="3"/>
-    <tableColumn name="Type" id="4"/>
-    <tableColumn name="Included in Program?" id="5"/>
-    <tableColumn name="Notes" id="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Event Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Day"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Length "/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Type"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Included in Program?"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Notes"/>
   </tableColumns>
-  <tableStyleInfo name="Events-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Events-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H66" displayName="Events_2" name="Events_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Events_2" displayName="Events_2" ref="A1:H66">
   <tableColumns count="8">
-    <tableColumn name="Talk Title" id="1"/>
-    <tableColumn name="Presenter" id="2"/>
-    <tableColumn name="Session" id="3"/>
-    <tableColumn name="Type" id="4"/>
-    <tableColumn name="Length " id="5"/>
-    <tableColumn name="Topic" id="6"/>
-    <tableColumn name="Included in Program?" id="7"/>
-    <tableColumn name="Notes" id="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Talk Title"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Presenter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Session"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Type"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Length "/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Topic"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Included in Program?"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Notes"/>
   </tableColumns>
-  <tableStyleInfo name="Talks-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Talks-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1935,23 +2000,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="24.25"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.0" customHeight="1">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1974,40 +2044,43 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="27.0" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="58" t="s">
+        <v>243</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="27.0" customHeight="1">
+    <row r="3" spans="1:8" ht="27" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" ht="27.0" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="54"/>
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3"/>
@@ -2017,198 +2090,215 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" ht="27.0" customHeight="1">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:8" ht="27" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="27.0" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:8" ht="27" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" ht="27.0" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" ht="27.0" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="27.0" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:8" ht="27" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" ht="27.0" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" ht="27.0" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="27" customHeight="1">
+      <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" ht="27.0" customHeight="1">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:8" ht="27" customHeight="1">
+      <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" ht="27.0" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+    </row>
+    <row r="13" spans="1:8" ht="27" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" ht="27.0" customHeight="1">
-      <c r="A14" s="7" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="27" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="56"/>
+      <c r="C14" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" ht="27.0" customHeight="1">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:8" ht="27" customHeight="1">
+      <c r="A15" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" ht="27.0" customHeight="1">
-      <c r="A16" s="6" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+    </row>
+    <row r="16" spans="1:8" ht="27" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="B11:B12"/>
@@ -2225,26 +2315,38 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="47.63"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2264,7 +2366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2277,24 +2379,24 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="3"/>
@@ -2303,78 +2405,116 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="56" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="56" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="14"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="15"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="15"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="3"/>
@@ -2383,37 +2523,37 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="17" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="3"/>
@@ -2422,11 +2562,11 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>76</v>
       </c>
       <c r="C18" s="3"/>
@@ -2435,11 +2575,11 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="3"/>
@@ -2448,11 +2588,11 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="3"/>
@@ -2466,24 +2606,25 @@
     <mergeCell ref="C5:G8"/>
     <mergeCell ref="C10:G13"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="46.0"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2503,7 +2644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
@@ -2516,11 +2657,11 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="3"/>
@@ -2529,38 +2670,57 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="56" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="14"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="14"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="14"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="3"/>
@@ -2569,11 +2729,11 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="3"/>
@@ -2582,11 +2742,11 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C10" s="3"/>
@@ -2595,38 +2755,57 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="56" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="14"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="14"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="14"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="3"/>
@@ -2635,11 +2814,11 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="13" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="3"/>
@@ -2648,11 +2827,11 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="12" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="3"/>
@@ -2661,7 +2840,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>97</v>
       </c>
@@ -2674,1913 +2853,1916 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="20">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C4:G7"/>
     <mergeCell ref="C11:G14"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.63"/>
-    <col customWidth="1" min="2" max="2" width="15.75"/>
-    <col customWidth="1" min="3" max="4" width="22.63"/>
-    <col customWidth="1" min="5" max="5" width="17.88"/>
-    <col customWidth="1" min="6" max="6" width="47.88"/>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="47.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="24">
-        <v>45552.0</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="20">
+        <v>45552</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="26" t="b">
+      <c r="E2" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="28" t="s">
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="29">
-        <v>45552.0</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="25">
+        <v>45552</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="31" t="b">
+      <c r="E3" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="32"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="23" t="s">
+      <c r="F3" s="28"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="24">
-        <v>45552.0</v>
-      </c>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="20">
+        <v>45552</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="26" t="b">
+      <c r="E4" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="28" t="s">
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="29">
-        <v>45552.0</v>
-      </c>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="25">
+        <v>45552</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="31" t="b">
+      <c r="E5" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="32"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="23" t="s">
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="24">
-        <v>45552.0</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="20">
+        <v>45552</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="26" t="b">
+      <c r="E6" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="27"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="28" t="s">
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="29">
-        <v>45552.0</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="25">
+        <v>45552</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="31" t="b">
+      <c r="E7" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="32"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="23" t="s">
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="24">
-        <v>45552.0</v>
-      </c>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="20">
+        <v>45552</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="26" t="b">
+      <c r="E8" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="28" t="s">
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="29">
-        <v>45552.0</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="25">
+        <v>45552</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="31" t="b">
+      <c r="E9" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="32"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="23" t="s">
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="24">
-        <v>45552.0</v>
-      </c>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="20">
+        <v>45552</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="26" t="b">
+      <c r="E10" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="27"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="28" t="s">
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="29">
-        <v>45552.0</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="25">
+        <v>45552</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="31" t="b">
+      <c r="E11" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="29" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="24">
-        <v>45553.0</v>
-      </c>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="20">
+        <v>45553</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="26" t="b">
+      <c r="E12" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="30" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="29">
-        <v>45553.0</v>
-      </c>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="25">
+        <v>45553</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="31" t="b">
+      <c r="E13" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="29" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="24">
-        <v>45554.0</v>
-      </c>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="20">
+        <v>45554</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="26" t="b">
+      <c r="E14" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="34"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="35" t="s">
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="36">
-        <v>45553.0</v>
-      </c>
-      <c r="C15" s="37" t="s">
+      <c r="B15" s="32">
+        <v>45553</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="38" t="b">
+      <c r="E15" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="F15" s="39"/>
+      <c r="F15" s="35"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C15">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C15" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Half Day,Full Day,Unknown,60/90 minutes,60 minutes,90 minutes,10 minutes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D15">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D15" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Workshop,Tutorial,Sponsor Talk,Special Event,Conference Event"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B2:B15">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B2:B15" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(B2))), AND(ISNUMBER(B2), LEFT(CELL("format", B2))="D"))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A15 F2:F15"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A15 F2:F15" xr:uid="{00000000-0002-0000-0300-000003000000}"/>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="94.75"/>
-    <col customWidth="1" min="2" max="2" width="22.13"/>
-    <col customWidth="1" min="3" max="3" width="39.75"/>
-    <col customWidth="1" min="4" max="4" width="22.63"/>
-    <col customWidth="1" min="5" max="5" width="12.0"/>
-    <col customWidth="1" min="6" max="7" width="22.63"/>
-    <col customWidth="1" min="8" max="8" width="30.75"/>
-    <col customWidth="1" min="9" max="9" width="29.13"/>
+    <col min="1" max="1" width="94.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="39.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="30.77734375" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="40">
-        <f t="shared" ref="E2:E66" si="1">IF(D2="R&amp;I", 20, IF(D2="Industry", 20, IF(D2="Platinum Sponsor", 45, IF(D2="Gold Sponsor", 30, IF(D2="Silver Sponsor", 20, IF(D2="StartUp Sponsor", 20, 0))))))</f>
+      <c r="E2" s="36">
+        <f t="shared" ref="E2:E66" si="0">IF(D2="R&amp;I", 20, IF(D2="Industry", 20, IF(D2="Platinum Sponsor", 45, IF(D2="Gold Sponsor", 30, IF(D2="Silver Sponsor", 20, IF(D2="StartUp Sponsor", 20, 0))))))</f>
         <v>30</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="34" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="44" t="s">
+      <c r="G3" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F4" s="25" t="s">
+      <c r="E4" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G4" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="27"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="28" t="s">
+      <c r="G4" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F5" s="30" t="s">
+      <c r="E5" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="44" t="s">
+      <c r="G5" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F6" s="25" t="s">
+      <c r="E6" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="34"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="42" t="s">
+      <c r="G6" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F7" s="30" t="s">
+      <c r="E7" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="G7" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="33"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="44" t="s">
+      <c r="G7" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F8" s="25" t="s">
+      <c r="E8" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="G8" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="34"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="28" t="s">
+      <c r="G8" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F9" s="30" t="s">
+      <c r="E9" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F9" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="33"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="44" t="s">
+      <c r="G9" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F10" s="25" t="s">
+      <c r="E10" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="34"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="28" t="s">
+      <c r="G10" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F11" s="30" t="s">
+      <c r="E11" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G11" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="33" t="s">
+      <c r="G11" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="E12" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F12" s="25" t="s">
+      <c r="E12" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G12" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="34" t="s">
+      <c r="G12" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="30" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F13" s="30" t="s">
+      <c r="E13" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F13" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G13" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="33"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="44" t="s">
+      <c r="G13" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E14" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F14" s="25" t="s">
+      <c r="E14" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="G14" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="34"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="42" t="s">
+      <c r="G14" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E15" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F15" s="30" t="s">
+      <c r="E15" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F15" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="33"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="23" t="s">
+      <c r="G15" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F16" s="25" t="s">
+      <c r="E16" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="G16" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="34"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47" t="s">
+      <c r="G16" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="42"/>
+      <c r="B17" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="E17" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F17" s="30" t="s">
+      <c r="E17" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F17" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="G17" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="33" t="s">
+      <c r="G17" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="29" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="44" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F18" s="25" t="s">
+      <c r="E18" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="G18" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="34"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="28" t="s">
+      <c r="G18" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F19" s="30" t="s">
+      <c r="E19" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F19" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="G19" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="33"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="44" t="s">
+      <c r="G19" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F20" s="25" t="s">
+      <c r="E20" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F20" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="G20" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="34"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="28" t="s">
+      <c r="G20" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="30"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="E21" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F21" s="30" t="s">
+      <c r="E21" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F21" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="G21" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="33" t="s">
+      <c r="G21" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="29" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="23" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E22" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F22" s="25" t="s">
+      <c r="E22" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="G22" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="34" t="s">
+      <c r="G22" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="30" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="42" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F23" s="30" t="s">
+      <c r="E23" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F23" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="G23" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="32"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="23" t="s">
+      <c r="G23" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E24" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F24" s="25" t="s">
+      <c r="E24" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="34" t="s">
+      <c r="G24" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="30" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="28" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="43">
-        <f t="shared" si="1"/>
+      <c r="E25" s="39">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G25" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="33"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="44" t="s">
+      <c r="G25" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F26" s="25" t="s">
+      <c r="E26" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="G26" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="34"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="42" t="s">
+      <c r="G26" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="30"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E27" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F27" s="30" t="s">
+      <c r="E27" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F27" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="G27" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="32"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="23" t="s">
+      <c r="G27" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="28"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F28" s="25" t="s">
+      <c r="E28" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="G28" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="34"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="28" t="s">
+      <c r="G28" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="30"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30" t="s">
+      <c r="B29" s="25"/>
+      <c r="C29" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E29" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F29" s="30" t="s">
+      <c r="E29" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F29" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G29" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="33" t="s">
+      <c r="G29" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="29" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="44" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F30" s="25" t="s">
+      <c r="E30" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="42" t="s">
+      <c r="G30" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30" t="s">
+      <c r="B31" s="25"/>
+      <c r="C31" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F31" s="30" t="s">
+      <c r="E31" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F31" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="G31" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" s="32"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="44" t="s">
+      <c r="G31" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="28"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E32" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F32" s="25" t="s">
+      <c r="E32" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F32" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="G32" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="42" t="s">
+      <c r="G32" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F33" s="30" t="s">
+      <c r="E33" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F33" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="G33" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" s="32"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="44" t="s">
+      <c r="G33" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="28"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E34" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F34" s="25" t="s">
+      <c r="E34" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F34" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="G34" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" s="27"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="42" t="s">
+      <c r="G34" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E35" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F35" s="30" t="s">
+      <c r="E35" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F35" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="G35" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" s="32"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="44" t="s">
+      <c r="G35" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="28"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E36" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F36" s="25" t="s">
+      <c r="E36" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F36" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G36" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" s="34"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="42" t="s">
+      <c r="G36" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="30"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30" t="s">
+      <c r="B37" s="25"/>
+      <c r="C37" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F37" s="30" t="s">
+      <c r="E37" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F37" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G37" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" s="33"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="44" t="s">
+      <c r="G37" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="29"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E38" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F38" s="25" t="s">
+      <c r="E38" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F38" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="G38" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" s="34"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="42" t="s">
+      <c r="G38" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="30"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="30" t="s">
+      <c r="B39" s="25"/>
+      <c r="C39" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E39" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F39" s="30" t="s">
+      <c r="E39" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F39" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="G39" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="33"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="23"/>
-      <c r="B40" s="48" t="s">
+      <c r="G39" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="29"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="19"/>
+      <c r="B40" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="E40" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F40" s="25" t="s">
+      <c r="E40" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F40" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="G40" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" s="34"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="28" t="s">
+      <c r="G40" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="30"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="30" t="s">
+      <c r="B41" s="25"/>
+      <c r="C41" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F41" s="30" t="s">
+      <c r="E41" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F41" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G41" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" s="33"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="23" t="s">
+      <c r="G41" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="29"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="20"/>
+      <c r="C42" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E42" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F42" s="25" t="s">
+      <c r="E42" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F42" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="G42" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" s="34" t="s">
+      <c r="G42" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="30" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="28" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="30" t="s">
+      <c r="B43" s="25"/>
+      <c r="C43" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E43" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F43" s="30" t="s">
+      <c r="E43" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F43" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="G43" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" s="33"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="23" t="s">
+      <c r="G43" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="29"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="E44" s="40">
-        <f t="shared" si="1"/>
+      <c r="E44" s="36">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G44" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" s="34"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="42" t="s">
+      <c r="G44" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="30"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="30" t="s">
+      <c r="B45" s="25"/>
+      <c r="C45" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E45" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F45" s="30" t="s">
+      <c r="E45" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F45" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="G45" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" s="33" t="s">
+      <c r="G45" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="29" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="23" t="s">
+    <row r="46" spans="1:8">
+      <c r="A46" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E46" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F46" s="25" t="s">
+      <c r="E46" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F46" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G46" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" s="34"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="28" t="s">
+      <c r="G46" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="30"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="30" t="s">
+      <c r="B47" s="25"/>
+      <c r="C47" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E47" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" s="33"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="23" t="s">
+      <c r="E47" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F47" s="45"/>
+      <c r="G47" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="29"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="E48" s="40">
-        <f t="shared" si="1"/>
+      <c r="E48" s="36">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" s="34"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="28" t="s">
+      <c r="F48" s="37"/>
+      <c r="G48" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="30"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30" t="s">
+      <c r="B49" s="25"/>
+      <c r="C49" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E49" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F49" s="49"/>
-      <c r="G49" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" s="33"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="23" t="s">
+      <c r="E49" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F49" s="45"/>
+      <c r="G49" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" s="29"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25" t="s">
+      <c r="B50" s="20"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E50" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F50" s="25" t="s">
+      <c r="E50" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F50" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="G50" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" s="34" t="s">
+      <c r="G50" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="30" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="42" t="s">
+    <row r="51" spans="1:8">
+      <c r="A51" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30" t="s">
+      <c r="B51" s="25"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E51" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F51" s="30" t="s">
+      <c r="E51" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F51" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="G51" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" s="33" t="s">
+      <c r="G51" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" s="29" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="23" t="s">
+    <row r="52" spans="1:8">
+      <c r="A52" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25" t="s">
+      <c r="B52" s="20"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E52" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F52" s="25" t="s">
+      <c r="E52" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F52" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G52" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" s="34" t="s">
+      <c r="G52" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="30" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="42" t="s">
+    <row r="53" spans="1:8">
+      <c r="A53" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30" t="s">
+      <c r="B53" s="25"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E53" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F53" s="30" t="s">
+      <c r="E53" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F53" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="G53" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" s="33" t="s">
+      <c r="G53" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" s="29" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="23" t="s">
+    <row r="54" spans="1:8">
+      <c r="A54" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25" t="s">
+      <c r="B54" s="20"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E54" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F54" s="25" t="s">
+      <c r="E54" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F54" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G54" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" s="34" t="s">
+      <c r="G54" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" s="30" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="28" t="s">
+    <row r="55" spans="1:8">
+      <c r="A55" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="30" t="s">
+      <c r="B55" s="25"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E55" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F55" s="30" t="s">
+      <c r="E55" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F55" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G55" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" s="33" t="s">
+      <c r="G55" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" s="29" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="23"/>
-      <c r="B56" s="48" t="s">
+    <row r="56" spans="1:8">
+      <c r="A56" s="19"/>
+      <c r="B56" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="C56" s="41"/>
-      <c r="D56" s="25" t="s">
+      <c r="C56" s="37"/>
+      <c r="D56" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="E56" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F56" s="25" t="s">
+      <c r="E56" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F56" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G56" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" s="34"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="28" t="s">
+      <c r="G56" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="30"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="30" t="s">
+      <c r="B57" s="25"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F57" s="30" t="s">
+      <c r="E57" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F57" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G57" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" s="33" t="s">
+      <c r="G57" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" s="29" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="23"/>
-      <c r="B58" s="48" t="s">
+    <row r="58" spans="1:8">
+      <c r="A58" s="19"/>
+      <c r="B58" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="C58" s="41"/>
-      <c r="D58" s="25" t="s">
+      <c r="C58" s="37"/>
+      <c r="D58" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="E58" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F58" s="25" t="s">
+      <c r="E58" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F58" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G58" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" s="34"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="28"/>
-      <c r="B59" s="50" t="s">
+      <c r="G58" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="30"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="24"/>
+      <c r="B59" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="C59" s="49"/>
-      <c r="D59" s="30" t="s">
+      <c r="C59" s="45"/>
+      <c r="D59" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="E59" s="43">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F59" s="30" t="s">
+      <c r="E59" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F59" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G59" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" s="33"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="23"/>
-      <c r="B60" s="40" t="s">
+      <c r="G59" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="19"/>
+      <c r="B60" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="C60" s="41"/>
-      <c r="D60" s="25" t="s">
+      <c r="C60" s="37"/>
+      <c r="D60" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="E60" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F60" s="25" t="s">
+      <c r="E60" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F60" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G60" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" s="34" t="s">
+      <c r="G60" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" s="30" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="42"/>
-      <c r="B61" s="43" t="s">
+    <row r="61" spans="1:8">
+      <c r="A61" s="38"/>
+      <c r="B61" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="30" t="s">
+      <c r="C61" s="45"/>
+      <c r="D61" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="E61" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F61" s="30" t="s">
+      <c r="E61" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G61" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" s="33" t="s">
+      <c r="G61" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" s="29" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="44"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="41"/>
-      <c r="G62" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" s="34"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="42"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="49"/>
-      <c r="G63" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" s="33"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="44"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F64" s="41"/>
-      <c r="G64" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" s="34"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="42"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="49"/>
-      <c r="G65" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" s="33"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="51"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F66" s="53"/>
-      <c r="G66" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" s="56"/>
+    <row r="62" spans="1:8">
+      <c r="A62" s="40"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="37"/>
+      <c r="G62" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" s="30"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="38"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="45"/>
+      <c r="G63" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" s="29"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="40"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="37"/>
+      <c r="G64" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" s="30"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="38"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="45"/>
+      <c r="G65" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" s="29"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="47"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="49"/>
+      <c r="G66" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" s="52"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F66">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F66" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"NLP &amp; LLMs,ML,Ontologies and KGs,LD Management,QA and Querying,Digital Humanities,Neuro-Symbolic AI"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A66 H2:H66"/>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C66">
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A66 H2:H66" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
+    <dataValidation type="list" allowBlank="1" sqref="C2:C66" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"Knowledge Graphs,Recommendations &amp; Decision Support,Data Governance,Symbolic and Neuro-Symbolic AI,Semantic Data Management,Digital Humanities,Linked Data (I),Linked Data (II),Linked Data (III),Digital Humanities (II),Machine Learning,LLMs and NLP,Queryin"&amp;"g and QA,KG and Ontology Construction,Data Governance,LLMs and KGs,Ontologies and Taxonomies"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D66">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D66" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"R&amp;I,Industry,Platinum Sponsor,Gold Sponsor,Silver Sponsor,StartUp Sponsor,Pending"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B17"/>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A3:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="6" t="s">
         <v>242</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/content/programme/program.xlsx
+++ b/content/programme/program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\br\2024-semantics-org.github.io\content\programme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80447A29-8E58-4021-A148-4D0FBE36EAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E3ACBD-A748-449E-9A1E-16FF47355B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>09:00 - 09:15</t>
   </si>
   <si>
-    <t xml:space="preserve">DBpedia opening ceremony </t>
-  </si>
-  <si>
     <t>DataBri-X DataThon</t>
   </si>
   <si>
@@ -1168,11 +1165,14 @@
     <t>* Afternoon coffee break should be served (preferrably) close to the P&amp;D session</t>
   </si>
   <si>
-    <t>Group: session | dbpedia
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Group: Bpedia opening ceremony 
 Slot title: DBpedia
 Title: Opening Session
-Chair: Sebastian Hellmann
-Link: DBpedia_Session_1</t>
+Chair: 
+Link: DBpedia_Session_1D</t>
   </si>
 </sst>
 </file>
@@ -1552,7 +1552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1686,20 +1686,23 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2013,7 +2016,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2048,40 +2051,40 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>243</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>242</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="53" t="s">
-        <v>9</v>
+      <c r="H2" s="57" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="54"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2092,48 +2095,48 @@
     </row>
     <row r="5" spans="1:8" ht="27" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="C5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="D5" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="E5" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="F5" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="G5" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>9</v>
+      <c r="H5" s="57" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="27" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
+        <v>20</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="1:8" ht="27" customHeight="1">
       <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2144,48 +2147,48 @@
     </row>
     <row r="8" spans="1:8" ht="27" customHeight="1">
       <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="53" t="s">
+      <c r="D8" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="E8" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="F8" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="G8" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>9</v>
+      <c r="H8" s="54" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="27" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+        <v>29</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
     </row>
     <row r="10" spans="1:8" ht="27" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2196,48 +2199,48 @@
     </row>
     <row r="11" spans="1:8" ht="27" customHeight="1">
       <c r="A11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="53" t="s">
+      <c r="D11" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="E11" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="F11" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="G11" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="55" t="s">
-        <v>9</v>
+      <c r="H11" s="54" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="27" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
+        <v>37</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
     </row>
     <row r="13" spans="1:8" ht="27" customHeight="1">
       <c r="A13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2248,46 +2251,46 @@
     </row>
     <row r="14" spans="1:8" ht="27" customHeight="1">
       <c r="A14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="53" t="s">
+      <c r="D14" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="E14" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="F14" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="G14" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="55" t="s">
-        <v>9</v>
+      <c r="H14" s="54" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="27" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+        <v>46</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
     </row>
     <row r="16" spans="1:8" ht="27" customHeight="1">
       <c r="A16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2298,6 +2301,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
@@ -2314,19 +2330,6 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2351,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2371,7 +2374,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2381,10 +2384,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2394,10 +2397,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2407,56 +2410,56 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
+        <v>56</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2466,56 +2469,56 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
+        <v>63</v>
+      </c>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2525,10 +2528,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2538,10 +2541,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2551,10 +2554,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2564,10 +2567,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2577,10 +2580,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2590,10 +2593,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>80</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2646,10 +2649,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2659,10 +2662,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2672,56 +2675,56 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+        <v>84</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2731,10 +2734,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2744,10 +2747,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2757,56 +2760,56 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
+        <v>88</v>
+      </c>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2816,10 +2819,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2829,10 +2832,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2842,10 +2845,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2889,36 +2892,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="20">
         <v>45552</v>
       </c>
       <c r="C2" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>105</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>106</v>
       </c>
       <c r="E2" s="22" t="b">
         <v>1</v>
@@ -2927,16 +2930,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="25">
         <v>45552</v>
       </c>
       <c r="C3" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>105</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>106</v>
       </c>
       <c r="E3" s="27" t="b">
         <v>1</v>
@@ -2945,16 +2948,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="20">
         <v>45552</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>109</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>110</v>
       </c>
       <c r="E4" s="22" t="b">
         <v>1</v>
@@ -2963,16 +2966,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="25">
         <v>45552</v>
       </c>
       <c r="C5" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>109</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>110</v>
       </c>
       <c r="E5" s="27" t="b">
         <v>1</v>
@@ -2981,16 +2984,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="20">
         <v>45552</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>109</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>110</v>
       </c>
       <c r="E6" s="22" t="b">
         <v>1</v>
@@ -2999,16 +3002,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="25">
         <v>45552</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="27" t="b">
         <v>1</v>
@@ -3017,16 +3020,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="20">
         <v>45552</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="22" t="b">
         <v>1</v>
@@ -3035,16 +3038,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="25">
         <v>45552</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9" s="27" t="b">
         <v>1</v>
@@ -3053,16 +3056,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="20">
         <v>45552</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" s="22" t="b">
         <v>1</v>
@@ -3071,76 +3074,76 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="25">
         <v>45552</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="27" t="b">
         <v>1</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="20">
         <v>45553</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="22" t="b">
         <v>1</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="25">
         <v>45553</v>
       </c>
       <c r="C13" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>124</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>125</v>
       </c>
       <c r="E13" s="27" t="b">
         <v>1</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="20">
         <v>45554</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>125</v>
       </c>
       <c r="E14" s="22" t="b">
         <v>1</v>
@@ -3149,16 +3152,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" s="32">
         <v>45553</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="34" t="b">
         <v>1</v>
@@ -3211,42 +3214,42 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="C2" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>136</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>137</v>
       </c>
       <c r="E2" s="36">
         <f t="shared" ref="E2:E66" si="0">IF(D2="R&amp;I", 20, IF(D2="Industry", 20, IF(D2="Platinum Sponsor", 45, IF(D2="Gold Sponsor", 30, IF(D2="Silver Sponsor", 20, IF(D2="StartUp Sponsor", 20, 0))))))</f>
@@ -3257,26 +3260,26 @@
         <v>0</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>139</v>
-      </c>
-      <c r="E3" s="39">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>140</v>
       </c>
       <c r="G3" s="27" t="b">
         <v>0</v>
@@ -3285,21 +3288,21 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>139</v>
-      </c>
-      <c r="E4" s="36">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>140</v>
       </c>
       <c r="G4" s="22" t="b">
         <v>0</v>
@@ -3308,21 +3311,21 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E5" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G5" s="27" t="b">
         <v>0</v>
@@ -3331,21 +3334,21 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G6" s="22" t="b">
         <v>0</v>
@@ -3354,21 +3357,21 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G7" s="27" t="b">
         <v>0</v>
@@ -3377,21 +3380,21 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G8" s="22" t="b">
         <v>0</v>
@@ -3400,21 +3403,21 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G9" s="27" t="b">
         <v>0</v>
@@ -3423,21 +3426,21 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>139</v>
-      </c>
-      <c r="E10" s="36">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>140</v>
       </c>
       <c r="G10" s="22" t="b">
         <v>0</v>
@@ -3446,73 +3449,73 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E11" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G11" s="27" t="b">
         <v>0</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="C12" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>155</v>
-      </c>
       <c r="E12" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G12" s="22" t="b">
         <v>0</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E13" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G13" s="27" t="b">
         <v>0</v>
@@ -3521,21 +3524,21 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>158</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="36">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>159</v>
       </c>
       <c r="G14" s="22" t="b">
         <v>0</v>
@@ -3544,21 +3547,21 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F15" s="26" t="s">
         <v>158</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="39">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>159</v>
       </c>
       <c r="G15" s="27" t="b">
         <v>0</v>
@@ -3567,21 +3570,21 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>158</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="36">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>159</v>
       </c>
       <c r="G16" s="22" t="b">
         <v>0</v>
@@ -3591,45 +3594,45 @@
     <row r="17" spans="1:8">
       <c r="A17" s="42"/>
       <c r="B17" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="E17" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F17" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="G17" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="29" t="s">
         <v>163</v>
-      </c>
-      <c r="E17" s="39">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E18" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G18" s="22" t="b">
         <v>0</v>
@@ -3638,21 +3641,21 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E19" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G19" s="27" t="b">
         <v>0</v>
@@ -3661,21 +3664,21 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G20" s="22" t="b">
         <v>0</v>
@@ -3684,73 +3687,73 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="C21" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="29" t="s">
         <v>170</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" s="39">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="G21" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E22" s="36">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F22" s="21" t="s">
+      <c r="G22" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="30" t="s">
         <v>174</v>
-      </c>
-      <c r="G22" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F23" s="26" t="s">
         <v>173</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="39">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>174</v>
       </c>
       <c r="G23" s="27" t="b">
         <v>0</v>
@@ -3759,48 +3762,48 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E24" s="36">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>174</v>
-      </c>
       <c r="G24" s="22" t="b">
         <v>0</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="B25" s="39" t="s">
-        <v>180</v>
-      </c>
       <c r="C25" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E25" s="39">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G25" s="27" t="b">
         <v>0</v>
@@ -3809,21 +3812,21 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>182</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="36">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>183</v>
       </c>
       <c r="G26" s="22" t="b">
         <v>0</v>
@@ -3832,21 +3835,21 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E27" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G27" s="27" t="b">
         <v>0</v>
@@ -3855,21 +3858,21 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E28" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G28" s="22" t="b">
         <v>0</v>
@@ -3878,46 +3881,46 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E29" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G29" s="27" t="b">
         <v>0</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>189</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="36">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>190</v>
       </c>
       <c r="G30" s="22" t="b">
         <v>0</v>
@@ -3926,21 +3929,21 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F31" s="26" t="s">
         <v>189</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" s="39">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>190</v>
       </c>
       <c r="G31" s="27" t="b">
         <v>0</v>
@@ -3949,21 +3952,21 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F32" s="21" t="s">
         <v>189</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="36">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>190</v>
       </c>
       <c r="G32" s="22" t="b">
         <v>0</v>
@@ -3972,21 +3975,21 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F33" s="26" t="s">
         <v>189</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" s="39">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>190</v>
       </c>
       <c r="G33" s="27" t="b">
         <v>0</v>
@@ -3995,21 +3998,21 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E34" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G34" s="22" t="b">
         <v>0</v>
@@ -4018,21 +4021,21 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B35" s="25"/>
       <c r="C35" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E35" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G35" s="27" t="b">
         <v>0</v>
@@ -4041,21 +4044,21 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D36" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F36" s="21" t="s">
         <v>139</v>
-      </c>
-      <c r="E36" s="36">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>140</v>
       </c>
       <c r="G36" s="22" t="b">
         <v>0</v>
@@ -4064,21 +4067,21 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D37" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F37" s="26" t="s">
         <v>139</v>
-      </c>
-      <c r="E37" s="39">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>140</v>
       </c>
       <c r="G37" s="27" t="b">
         <v>0</v>
@@ -4087,21 +4090,21 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E38" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G38" s="22" t="b">
         <v>0</v>
@@ -4110,21 +4113,21 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E39" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G39" s="27" t="b">
         <v>0</v>
@@ -4134,20 +4137,20 @@
     <row r="40" spans="1:8">
       <c r="A40" s="19"/>
       <c r="B40" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E40" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G40" s="22" t="b">
         <v>0</v>
@@ -4156,21 +4159,21 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E41" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G41" s="27" t="b">
         <v>0</v>
@@ -4179,46 +4182,46 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="36">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G42" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="30" t="s">
         <v>205</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E42" s="36">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="G42" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" s="30" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E43" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G43" s="27" t="b">
         <v>0</v>
@@ -4227,23 +4230,23 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="B44" s="44" t="s">
-        <v>209</v>
-      </c>
       <c r="C44" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E44" s="36">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G44" s="22" t="b">
         <v>0</v>
@@ -4252,46 +4255,46 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E45" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G45" s="27" t="b">
         <v>0</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E46" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G46" s="22" t="b">
         <v>0</v>
@@ -4300,14 +4303,14 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B47" s="25"/>
       <c r="C47" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E47" s="39">
         <f t="shared" si="0"/>
@@ -4321,16 +4324,16 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>216</v>
-      </c>
       <c r="C48" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E48" s="36">
         <f t="shared" si="0"/>
@@ -4344,14 +4347,14 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B49" s="25"/>
       <c r="C49" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E49" s="39">
         <f t="shared" si="0"/>
@@ -4365,157 +4368,157 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="21"/>
       <c r="D50" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E50" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G50" s="22" t="b">
         <v>0</v>
       </c>
       <c r="H50" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B51" s="25"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E51" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G51" s="27" t="b">
         <v>0</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="21"/>
       <c r="D52" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E52" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G52" s="22" t="b">
         <v>0</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B53" s="25"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E53" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G53" s="27" t="b">
         <v>0</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="21"/>
       <c r="D54" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E54" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G54" s="22" t="b">
         <v>0</v>
       </c>
       <c r="H54" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B55" s="25"/>
       <c r="C55" s="45"/>
       <c r="D55" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E55" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G55" s="27" t="b">
         <v>0</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="19"/>
       <c r="B56" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C56" s="37"/>
       <c r="D56" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E56" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G56" s="22" t="b">
         <v>0</v>
@@ -4524,42 +4527,42 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B57" s="25"/>
       <c r="C57" s="45"/>
       <c r="D57" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E57" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G57" s="27" t="b">
         <v>0</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="19"/>
       <c r="B58" s="44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C58" s="37"/>
       <c r="D58" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E58" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G58" s="22" t="b">
         <v>0</v>
@@ -4569,18 +4572,18 @@
     <row r="59" spans="1:8">
       <c r="A59" s="24"/>
       <c r="B59" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C59" s="45"/>
       <c r="D59" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E59" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G59" s="27" t="b">
         <v>0</v>
@@ -4590,47 +4593,47 @@
     <row r="60" spans="1:8">
       <c r="A60" s="19"/>
       <c r="B60" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C60" s="37"/>
       <c r="D60" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E60" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G60" s="22" t="b">
         <v>0</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="38"/>
       <c r="B61" s="39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C61" s="45"/>
       <c r="D61" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="E61" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="G61" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" s="29" t="s">
         <v>237</v>
-      </c>
-      <c r="E61" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="G61" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" s="29" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4744,22 +4747,22 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/content/programme/program.xlsx
+++ b/content/programme/program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\br\2024-semantics-org.github.io\content\programme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE66380-3975-4E28-9A1C-43376AE62AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A0A351-ADB5-48D7-AF42-4D22E2CAFDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1168,7 +1168,6 @@
     <t>Group: session | dbpedia
 Slot title: DBpedia
 Title: Opening Session
-Chair: --
 Link: DBpedia_Session_1</t>
   </si>
 </sst>
